--- a/tables/cputest_latency_table.xlsx
+++ b/tables/cputest_latency_table.xlsx
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8053941623974603</v>
+        <v>0.8272290939215802</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6911250071940009</v>
+        <v>0.6919655038133441</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.373424</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>3.232082092357793</v>
+        <v>3.379368066236442</v>
       </c>
     </row>
     <row r="6">
@@ -549,10 +549,10 @@
         <v>341</v>
       </c>
       <c r="D6" t="n">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +568,7 @@
         <v>210</v>
       </c>
       <c r="D7" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -584,13 +584,13 @@
         <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D9" t="n">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="D10" t="n">
-        <v>4196</v>
+        <v>4355</v>
       </c>
       <c r="E10" t="n">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11">
@@ -641,10 +641,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>2352</v>
+        <v>2340</v>
       </c>
       <c r="D11" t="n">
-        <v>2578</v>
+        <v>2569</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -673,13 +673,13 @@
         <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>13051</v>
+        <v>13062</v>
       </c>
       <c r="D13" t="n">
-        <v>13381</v>
+        <v>13396</v>
       </c>
       <c r="E13" t="n">
-        <v>853</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14">
@@ -692,13 +692,13 @@
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>43077</v>
+        <v>43038</v>
       </c>
       <c r="D14" t="n">
-        <v>44624</v>
+        <v>44632</v>
       </c>
       <c r="E14" t="n">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="15">
@@ -711,13 +711,13 @@
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>25908</v>
+        <v>25812</v>
       </c>
       <c r="D15" t="n">
-        <v>28062</v>
+        <v>28017</v>
       </c>
       <c r="E15" t="n">
-        <v>693</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16">
